--- a/validation/rules.xlsx
+++ b/validation/rules.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissajuarez/Documents/GITHUB REPOS/parcel-data-processor/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465F9912-E343-B141-8E1D-A8893947602B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06584E67-2AE3-DD45-8511-F9D380CF69EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{65B62766-48F9-4D4B-ABB4-905B9DD8B9FC}"/>
   </bookViews>
@@ -140,9 +140,6 @@
     <t>as.numeric(appr_land) &gt;= 0</t>
   </si>
   <si>
-    <t>owner_addrdir %in% c("N", "E", "S", "W", "NE", "SE", "NW", "SW")</t>
-  </si>
-  <si>
     <t>as.numeric(tax_year) &gt;= 1980</t>
   </si>
   <si>
@@ -179,12 +176,6 @@
     <t>!grepl("^[0-9]+$", owner_name_1)</t>
   </si>
   <si>
-    <t>!grepl("^[0-9]+$", owner_name_2)</t>
-  </si>
-  <si>
-    <t>site_addrdir %in% c("N", "E", "S", "W", "NE", "SE", "NW", "SW")</t>
-  </si>
-  <si>
     <t>grade %in% c('E+', 'E', 'E-', 'X+', 'X', 'X-', 'A+', 'A', 'A-', 'B+', 'B', 'B-', 'C+', 'C', 'C-', 'D+', 'D', 'D-')</t>
   </si>
   <si>
@@ -212,9 +203,6 @@
     <t>as.numeric(appr_build) &gt;= 0</t>
   </si>
   <si>
-    <t>grepl("^[a-zA-Z0-9# -./&amp;]+$", owner_unitno)</t>
-  </si>
-  <si>
     <t>Appraisal values should be non-negative.</t>
   </si>
   <si>
@@ -278,10 +266,22 @@
     <t>Tax district should be a number 1-99 or a combination of 2 numbers followed by a letter.</t>
   </si>
   <si>
-    <t>(grepl("^[0-9]+$", tax_district) &amp; as.numeric(tax_district) &gt; 0 &amp; as.numeric(tax_district) &lt;100 | (grepl("^[0-9]+$", substr(tax_district, 1, 2)) &amp; grepl("^[a-zA-Z]+$", substr(tax_district, 3, 3)))</t>
-  </si>
-  <si>
     <t>A two-character alphanumeric code or a single number.</t>
+  </si>
+  <si>
+    <t>grepl("^[a-zA-Z0-9# -./&amp;]+$", owner_unitno) | is.na(owner_unitno)</t>
+  </si>
+  <si>
+    <t>owner_addrdir %in% c("N", "E", "S", "W", "NE", "SE", "NW", "SW") | is.na(owner_addrdir)</t>
+  </si>
+  <si>
+    <t>site_addrdir %in% c("N", "E", "S", "W", "NE", "SE", "NW", "SW") | is.na(site_addrdir)</t>
+  </si>
+  <si>
+    <t>!grepl("^[0-9]+$", owner_name_2) | is.na(owner_name_2)</t>
+  </si>
+  <si>
+    <t>(grepl("^[0-9]+$", tax_district) &amp; as.numeric(tax_district) &gt; 0 &amp; as.numeric(tax_district) &lt;100) | (grepl("^[0-9]+$", substr(tax_district, 1, 2)) &amp; grepl("^[a-zA-Z]+$", substr(tax_district, 3, 3)))</t>
   </si>
 </sst>
 </file>
@@ -664,7 +664,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -689,10 +689,10 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -703,7 +703,7 @@
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -711,10 +711,10 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -722,10 +722,10 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -733,10 +733,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -744,10 +744,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -755,10 +755,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -766,10 +766,10 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -777,10 +777,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -788,10 +788,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -799,10 +799,10 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -810,10 +810,10 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -821,10 +821,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -832,10 +832,10 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -843,10 +843,10 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -854,10 +854,10 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -865,10 +865,10 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -876,10 +876,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -887,10 +887,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -898,10 +898,10 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -909,10 +909,10 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -920,10 +920,10 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -931,10 +931,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -942,10 +942,10 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -953,10 +953,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -964,10 +964,10 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -978,7 +978,7 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -986,10 +986,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -997,10 +997,10 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
